--- a/out/Tables.xlsx
+++ b/out/Tables.xlsx
@@ -470,19 +470,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>589.5631825378886</v>
+        <v>589.5631825465506</v>
       </c>
       <c r="C3">
-        <v>20675.90685229041</v>
+        <v>20675.906852851844</v>
       </c>
       <c r="D3">
-        <v>557.1016824463583</v>
+        <v>557.101682456922</v>
       </c>
       <c r="E3">
-        <v>486.7098588930818</v>
+        <v>486.70985889665724</v>
       </c>
       <c r="F3">
-        <v>0.12219468485140814</v>
+        <v>0.12219468485293083</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,19 +490,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>133.6039753263448</v>
+        <v>133.60397532738133</v>
       </c>
       <c r="C4">
-        <v>20675.90685229041</v>
+        <v>20675.906852851844</v>
       </c>
       <c r="D4">
-        <v>557.1016824463583</v>
+        <v>557.101682456922</v>
       </c>
       <c r="E4">
-        <v>231.69393018835288</v>
+        <v>231.69393018925163</v>
       </c>
       <c r="F4">
-        <v>0.5392166446712378</v>
+        <v>0.5392166446816964</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -530,19 +530,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1148.0572809311143</v>
+        <v>540.2511654581377</v>
       </c>
       <c r="C6">
-        <v>83624.65957006929</v>
+        <v>83624.65957348516</v>
       </c>
       <c r="D6">
         <v>0.0</v>
       </c>
       <c r="E6">
-        <v>679.1829028164075</v>
+        <v>465.9108479967812</v>
       </c>
       <c r="F6">
-        <v>0.2537984169369038</v>
+        <v>0.5393327013334926</v>
       </c>
     </row>
   </sheetData>
@@ -586,19 +586,19 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>813.2785691151024</v>
+        <v>813.2785691258637</v>
       </c>
       <c r="C2">
-        <v>2.3702849111528286</v>
+        <v>2.370284911184192</v>
       </c>
       <c r="D2">
-        <v>729.963547956903</v>
+        <v>-367.5972231603256</v>
       </c>
       <c r="E2">
-        <v>1.0747672606744374</v>
+        <v>0.38935816859389694</v>
       </c>
       <c r="F2">
-        <v>557.1016824463583</v>
+        <v>557.101682456922</v>
       </c>
       <c r="G2">
         <v>-343.1142666809411</v>

--- a/out/Tables.xlsx
+++ b/out/Tables.xlsx
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>293.0</v>
+        <v>289.65</v>
       </c>
       <c r="C2">
-        <v>3236.7</v>
+        <v>1585.794176700003</v>
       </c>
       <c r="D2">
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>343.1142666809411</v>
+        <v>341.1471383435599</v>
       </c>
       <c r="F2">
-        <v>0.03849044487519473</v>
+        <v>0.01907617900854754</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,19 +470,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>589.5631825465506</v>
+        <v>639.8813919399113</v>
       </c>
       <c r="C3">
-        <v>20675.906852851844</v>
+        <v>11968.96892405165</v>
       </c>
       <c r="D3">
-        <v>557.101682456922</v>
+        <v>620.4725906959804</v>
       </c>
       <c r="E3">
-        <v>486.70985889665724</v>
+        <v>507.05457623559255</v>
       </c>
       <c r="F3">
-        <v>0.12219468485293083</v>
+        <v>0.0651741478957772</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,19 +490,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>133.60397532738133</v>
+        <v>121.40066631163111</v>
       </c>
       <c r="C4">
-        <v>20675.906852851844</v>
+        <v>11968.96892405165</v>
       </c>
       <c r="D4">
-        <v>557.101682456922</v>
+        <v>620.4725906959804</v>
       </c>
       <c r="E4">
-        <v>231.69393018925163</v>
+        <v>220.85920339441003</v>
       </c>
       <c r="F4">
-        <v>0.5392166446816964</v>
+        <v>0.34352138040985386</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,19 +510,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>293.0</v>
+        <v>296.15</v>
       </c>
       <c r="C5">
-        <v>322948.6</v>
+        <v>271377.64693439996</v>
       </c>
       <c r="D5">
         <v>0.0</v>
       </c>
       <c r="E5">
-        <v>343.1142666809411</v>
+        <v>344.95372153377326</v>
       </c>
       <c r="F5">
-        <v>3.840465685983042</v>
+        <v>3.1928641366103085</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,19 +530,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>540.2511654581377</v>
+        <v>596.3242899919437</v>
       </c>
       <c r="C6">
-        <v>83624.65957348516</v>
+        <v>52461.5235156342</v>
       </c>
       <c r="D6">
         <v>0.0</v>
       </c>
       <c r="E6">
-        <v>465.9108479967812</v>
+        <v>489.4926962874553</v>
       </c>
       <c r="F6">
-        <v>0.5393327013334926</v>
+        <v>0.30653248229299274</v>
       </c>
     </row>
   </sheetData>
@@ -586,22 +586,22 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>813.2785691258637</v>
+        <v>877.235448056768</v>
       </c>
       <c r="C2">
-        <v>2.370284911184192</v>
+        <v>2.571428423278545</v>
       </c>
       <c r="D2">
-        <v>-367.5972231603256</v>
+        <v>-380.85737549998294</v>
       </c>
       <c r="E2">
-        <v>0.38935816859389694</v>
+        <v>0.4725629674322576</v>
       </c>
       <c r="F2">
-        <v>557.101682456922</v>
+        <v>620.4725906959804</v>
       </c>
       <c r="G2">
-        <v>-343.1142666809411</v>
+        <v>-344.95372153377326</v>
       </c>
     </row>
   </sheetData>
